--- a/biology/Zoologie/Damier_des_knauties/Damier_des_knauties.xlsx
+++ b/biology/Zoologie/Damier_des_knauties/Damier_des_knauties.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphydryas desfontainii
 Le Damier des knauties ou Damier de Godart (Euphydryas desfontainii) est une espèce de lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Nymphalinae et au genre Euphydryas.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon orange marron et blanc en lignes de damiers, avec sur le bord des chevrons blancs puis une très large bande de damiers orange centrés aux postérieures d'un point noir et aux antérieures d'un point blanc.
 Le revers est orange et blanc avec la même bordure des  chevrons blancs puis une très large bande de damiers orange centrés aux postérieures d'une tache blanche centrée d'un point noir.
@@ -549,11 +563,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Les jeunes chenilles hivernent regroupées dans une toile de soie.
-L'imago vole en une seule génération d'avril à juin[1].
-Plantes hôtes
-La plante hôte de la chenille est la Scabieuse des champs Knautia arvensis au Maroc et la Scabieuse à fleurs blanches Cephalaria leucantha en France[2],[1].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes chenilles hivernent regroupées dans une toile de soie.
+L'imago vole en une seule génération d'avril à juin.
 </t>
         </is>
       </c>
@@ -579,14 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent au Maroc, en Algérie, au Portugal, en Espagne et en France dans l'Aude et les Pyrénées-Orientales[2],[1],[3].
-Biotope
-Il affectionne les broussailles et les prairies fleuries.
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de la chenille est la Scabieuse des champs Knautia arvensis au Maroc et la Scabieuse à fleurs blanches Cephalaria leucantha en France,.
 </t>
         </is>
       </c>
@@ -612,23 +633,198 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent au Maroc, en Algérie, au Portugal, en Espagne et en France dans l'Aude et les Pyrénées-Orientales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les broussailles et les prairies fleuries.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Euphydryas desfontainii a été décrite par l'entomologiste français Jean-Baptiste Godart, en 1819 sous le nom initial de Argynnis desfontainii.
-Synonymes
-Argynnis desfontainii Godart, 1819,  Protonyme
-Melitaea baetica (Rambur, 1858)[4].
-Noms vernaculaires
-Le Damier des knauties ou Damier de Godart ou Damier flamboyant
-En anglais Spanish Fritillary et en espagnol Dientes gualdos.
-Taxinomie
-Sous-espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Argynnis desfontainii Godart, 1819,  Protonyme
+Melitaea baetica (Rambur, 1858).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Damier des knauties ou Damier de Godart ou Damier flamboyant
+En anglais Spanish Fritillary et en espagnol Dientes gualdos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-espèces
 Euphydryas desfontainii desfontainii au Maroc et dans l'ouest de l'Algérie.
-Euphydryas desfontainii baetica (Rambur, 1858) en Europe[2].
-Euphydryas desfontainii boumalnei Weiss 2000, synonyme de  Euphydryas desfontainii martae[5].
+Euphydryas desfontainii baetica (Rambur, 1858) en Europe.
+Euphydryas desfontainii boumalnei Weiss 2000, synonyme de  Euphydryas desfontainii martae.
 Euphydryas desfontainii gibrati (Oberthür, 1922)
 			Euphydryas desfontainii beatica ♂ MHNT
 			Euphydryas desfontainii beatica ♂ △ MHNT
@@ -636,34 +832,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Damier_des_knauties</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Damier_des_knauties</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_des_knauties</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Le Damier des knauties et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-Le Red data bok le déclare présent dans trois pays d'Europe et stable.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Red data bok le déclare présent dans trois pays d'Europe et stable.
 En France il est déclaré espèce en voie d'extinction (E) et protégé par l'arrêté du 23 avril 2007.
 Au Maroc il est considéré comme vulnérable.
 </t>
